--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H2">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I2">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J2">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>6.309527325162667</v>
+        <v>6.117765846173332</v>
       </c>
       <c r="R2">
-        <v>56.785745926464</v>
+        <v>55.05989261555999</v>
       </c>
       <c r="S2">
-        <v>1.908151143349174E-05</v>
+        <v>1.884022496629276E-05</v>
       </c>
       <c r="T2">
-        <v>1.908151143349174E-05</v>
+        <v>1.884022496629277E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H3">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I3">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J3">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>205.8906308717369</v>
+        <v>724.8773402599301</v>
       </c>
       <c r="R3">
-        <v>1853.015677845632</v>
+        <v>6523.89606233937</v>
       </c>
       <c r="S3">
-        <v>0.0006226622414899501</v>
+        <v>0.002232326719730112</v>
       </c>
       <c r="T3">
-        <v>0.0006226622414899501</v>
+        <v>0.002232326719730113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H4">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I4">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J4">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>71.31289246029156</v>
+        <v>244.7945054705695</v>
       </c>
       <c r="R4">
-        <v>641.816032142624</v>
+        <v>2203.150549235126</v>
       </c>
       <c r="S4">
-        <v>0.0002156671494883078</v>
+        <v>0.0007538672890631657</v>
       </c>
       <c r="T4">
-        <v>0.0002156671494883079</v>
+        <v>0.000753867289063166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H5">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I5">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J5">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.5620372451200001</v>
+        <v>1.644915018276556</v>
       </c>
       <c r="R5">
-        <v>5.05833520608</v>
+        <v>14.804235164489</v>
       </c>
       <c r="S5">
-        <v>1.699734317028097E-06</v>
+        <v>5.065667724786902E-06</v>
       </c>
       <c r="T5">
-        <v>1.699734317028097E-06</v>
+        <v>5.065667724786904E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J6">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>7312.389408148732</v>
+        <v>2013.851284980173</v>
       </c>
       <c r="R6">
-        <v>65811.50467333858</v>
+        <v>18124.66156482156</v>
       </c>
       <c r="S6">
-        <v>0.02211440491608246</v>
+        <v>0.006201841033425072</v>
       </c>
       <c r="T6">
-        <v>0.02211440491608246</v>
+        <v>0.006201841033425073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J7">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>238615.7299643258</v>
+        <v>238615.7299643257</v>
       </c>
       <c r="R7">
         <v>2147541.569678931</v>
       </c>
       <c r="S7">
-        <v>0.7216307252315249</v>
+        <v>0.7348391792137725</v>
       </c>
       <c r="T7">
-        <v>0.721630725231525</v>
+        <v>0.7348391792137726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J8">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>82647.65530239488</v>
+        <v>80581.66033051946</v>
       </c>
       <c r="R8">
-        <v>743828.8977215538</v>
+        <v>725234.9429746752</v>
       </c>
       <c r="S8">
-        <v>0.2499461684419084</v>
+        <v>0.2481586655909685</v>
       </c>
       <c r="T8">
-        <v>0.2499461684419084</v>
+        <v>0.2481586655909685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J9">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>651.36974394427</v>
+        <v>541.4745033616267</v>
       </c>
       <c r="R9">
-        <v>5862.32769549843</v>
+        <v>4873.27053025464</v>
       </c>
       <c r="S9">
-        <v>0.001969897042356138</v>
+        <v>0.001667520744231449</v>
       </c>
       <c r="T9">
-        <v>0.001969897042356139</v>
+        <v>0.001667520744231449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H10">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>22.62336611259867</v>
+        <v>10.52212931970667</v>
       </c>
       <c r="R10">
-        <v>203.610295013388</v>
+        <v>94.69916387735999</v>
       </c>
       <c r="S10">
-        <v>6.841844038301103E-05</v>
+        <v>3.240386907447553E-05</v>
       </c>
       <c r="T10">
-        <v>6.841844038301103E-05</v>
+        <v>3.240386907447554E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H11">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>738.2389965709716</v>
+        <v>1246.738320315226</v>
       </c>
       <c r="R11">
-        <v>6644.150969138745</v>
+        <v>11220.64488283703</v>
       </c>
       <c r="S11">
-        <v>0.002232610325267954</v>
+        <v>0.00383944580741499</v>
       </c>
       <c r="T11">
-        <v>0.002232610325267954</v>
+        <v>0.003839445807414991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H12">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>255.6986587954842</v>
+        <v>421.0294261141285</v>
       </c>
       <c r="R12">
-        <v>2301.287929159358</v>
+        <v>3789.264835027156</v>
       </c>
       <c r="S12">
-        <v>0.0007732935654112165</v>
+        <v>0.001296599004419395</v>
       </c>
       <c r="T12">
-        <v>0.0007732935654112165</v>
+        <v>0.001296599004419395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H13">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>2.01523405954</v>
+        <v>2.829138770170445</v>
       </c>
       <c r="R13">
-        <v>18.13710653586</v>
+        <v>25.46224893153401</v>
       </c>
       <c r="S13">
-        <v>6.094547145381148E-06</v>
+        <v>8.712594144840021E-06</v>
       </c>
       <c r="T13">
-        <v>6.094547145381148E-06</v>
+        <v>8.712594144840022E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H14">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>2.932390902655333</v>
+        <v>1.9217119166</v>
       </c>
       <c r="R14">
-        <v>26.391518123898</v>
+        <v>17.2954072494</v>
       </c>
       <c r="S14">
-        <v>8.86824759650951E-06</v>
+        <v>5.918089338413663E-06</v>
       </c>
       <c r="T14">
-        <v>8.86824759650951E-06</v>
+        <v>5.918089338413664E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H15">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>95.68891325701379</v>
+        <v>227.6983882477533</v>
       </c>
       <c r="R15">
-        <v>861.2002193131242</v>
+        <v>2049.285494229779</v>
       </c>
       <c r="S15">
-        <v>0.0002893860345275602</v>
+        <v>0.0007012182170609347</v>
       </c>
       <c r="T15">
-        <v>0.0002893860345275602</v>
+        <v>0.0007012182170609349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H16">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>33.14309714748811</v>
+        <v>76.89482240894333</v>
       </c>
       <c r="R16">
-        <v>298.287874327393</v>
+        <v>692.05340168049</v>
       </c>
       <c r="S16">
-        <v>0.0001002326092858021</v>
+        <v>0.000236804707691419</v>
       </c>
       <c r="T16">
-        <v>0.0001002326092858021</v>
+        <v>0.000236804707691419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H17">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>0.26121020159</v>
+        <v>0.5167005197483334</v>
       </c>
       <c r="R17">
-        <v>2.35089181431</v>
+        <v>4.650304677735001</v>
       </c>
       <c r="S17">
-        <v>7.899617818131513E-07</v>
+        <v>1.591226973544288E-06</v>
       </c>
       <c r="T17">
-        <v>7.899617818131514E-07</v>
+        <v>1.591226973544288E-06</v>
       </c>
     </row>
   </sheetData>
